--- a/tests/test_data/members_synthetic.xlsx
+++ b/tests/test_data/members_synthetic.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="342">
   <si>
     <t xml:space="preserve">Erntevertrag-Nr.</t>
   </si>
@@ -198,6 +198,9 @@
     <t xml:space="preserve">0163</t>
   </si>
   <si>
+    <t xml:space="preserve">DuckTrick</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trick</t>
   </si>
   <si>
@@ -240,6 +243,27 @@
     <t xml:space="preserve">0013</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Donna</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Donna</t>
   </si>
   <si>
@@ -258,7 +282,28 @@
     <t xml:space="preserve">0108</t>
   </si>
   <si>
-    <t xml:space="preserve">Dacky</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dackyy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dackyy</t>
   </si>
   <si>
     <t xml:space="preserve">EV-0018-1</t>
@@ -267,6 +312,27 @@
     <t xml:space="preserve">0018</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ducky</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Ducky</t>
   </si>
   <si>
@@ -297,6 +363,27 @@
     <t xml:space="preserve">0023</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dorette</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Dorette</t>
   </si>
   <si>
@@ -675,6 +762,27 @@
     <t xml:space="preserve">0152</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Doofy</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Doofy</t>
   </si>
   <si>
@@ -858,6 +966,27 @@
     <t xml:space="preserve">0011</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dolly</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Dolly</t>
   </si>
   <si>
@@ -895,6 +1024,27 @@
   </si>
   <si>
     <t xml:space="preserve">0142</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dettmar</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Dettmar</t>
@@ -1083,7 +1233,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,6 +1278,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1346,7 +1502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1354,7 +1510,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,23 +1518,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1785,13 +1941,13 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15:G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.46"/>
@@ -2143,10 +2299,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -2182,7 +2338,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="11" t="n">
         <v>43831</v>
@@ -2199,16 +2355,16 @@
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -2244,7 +2400,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="11" t="n">
         <v>43831</v>
@@ -2261,16 +2417,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -2323,16 +2479,16 @@
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -2385,16 +2541,16 @@
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -2447,16 +2603,16 @@
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -2509,16 +2665,16 @@
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -2554,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="11" t="n">
         <v>43831</v>
@@ -2571,16 +2727,16 @@
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -2616,7 +2772,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="11" t="n">
         <v>43831</v>
@@ -2633,16 +2789,16 @@
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -2695,16 +2851,16 @@
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -2757,16 +2913,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -2819,16 +2975,16 @@
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -2881,16 +3037,16 @@
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
@@ -2926,7 +3082,7 @@
         <v>25</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="11" t="n">
         <v>43831</v>
@@ -2943,16 +3099,16 @@
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>25</v>
@@ -2988,7 +3144,7 @@
         <v>25</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="11" t="n">
         <v>43831</v>
@@ -3005,16 +3161,16 @@
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>25</v>
@@ -3067,16 +3223,16 @@
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>25</v>
@@ -3129,16 +3285,16 @@
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>25</v>
@@ -3191,16 +3347,16 @@
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>25</v>
@@ -3253,16 +3409,16 @@
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>25</v>
@@ -3298,7 +3454,7 @@
         <v>25</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="11" t="n">
         <v>54789</v>
@@ -3315,16 +3471,16 @@
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>25</v>
@@ -3360,7 +3516,7 @@
         <v>25</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="11" t="n">
         <v>54789</v>
@@ -3377,16 +3533,16 @@
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
@@ -3439,16 +3595,16 @@
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>25</v>
@@ -3501,16 +3657,16 @@
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>25</v>
@@ -3563,16 +3719,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>25</v>
@@ -3625,16 +3781,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
@@ -3670,7 +3826,7 @@
         <v>25</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="11" t="n">
         <v>43831</v>
@@ -3687,16 +3843,16 @@
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
@@ -3732,7 +3888,7 @@
         <v>25</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="11" t="n">
         <v>43831</v>
@@ -3749,16 +3905,16 @@
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>25</v>
@@ -3811,16 +3967,16 @@
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>25</v>
@@ -3873,16 +4029,16 @@
     </row>
     <row r="34" s="16" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>25</v>
@@ -3941,16 +4097,16 @@
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>25</v>
@@ -4003,16 +4159,16 @@
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>25</v>
@@ -4048,7 +4204,7 @@
         <v>25</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="11" t="n">
         <v>43831</v>
@@ -4065,16 +4221,16 @@
     </row>
     <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>25</v>
@@ -4110,7 +4266,7 @@
         <v>25</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="11" t="n">
         <v>43831</v>
@@ -4127,16 +4283,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>25</v>
@@ -4189,16 +4345,16 @@
     </row>
     <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>25</v>
@@ -4251,16 +4407,16 @@
     </row>
     <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>25</v>
@@ -4313,16 +4469,16 @@
     </row>
     <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>25</v>
@@ -4375,16 +4531,16 @@
     </row>
     <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>25</v>
@@ -4420,7 +4576,7 @@
         <v>25</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q42" s="11" t="n">
         <v>43831</v>
@@ -4439,16 +4595,16 @@
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>25</v>
@@ -4484,7 +4640,7 @@
         <v>25</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="11" t="n">
         <v>43831</v>
@@ -4503,16 +4659,16 @@
     </row>
     <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>25</v>
@@ -4567,16 +4723,16 @@
     </row>
     <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>25</v>
@@ -4631,16 +4787,16 @@
     </row>
     <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>25</v>
@@ -4693,16 +4849,16 @@
     </row>
     <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>25</v>
@@ -4755,16 +4911,16 @@
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>25</v>
@@ -4800,7 +4956,7 @@
         <v>25</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q48" s="11" t="n">
         <v>43831</v>
@@ -4817,16 +4973,16 @@
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>25</v>
@@ -4862,7 +5018,7 @@
         <v>25</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="11" t="n">
         <v>43831</v>
@@ -4879,16 +5035,16 @@
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>25</v>
@@ -4941,16 +5097,16 @@
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>25</v>
@@ -5003,16 +5159,16 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>25</v>
@@ -5065,16 +5221,16 @@
     </row>
     <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>25</v>
@@ -5127,16 +5283,16 @@
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>25</v>
@@ -5172,7 +5328,7 @@
         <v>25</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="11" t="n">
         <v>43831</v>
@@ -5189,16 +5345,16 @@
     </row>
     <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>25</v>
@@ -5234,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q55" s="11" t="n">
         <v>43831</v>
@@ -5251,16 +5407,16 @@
     </row>
     <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>25</v>
@@ -5313,16 +5469,16 @@
     </row>
     <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>25</v>
@@ -5375,16 +5531,16 @@
     </row>
     <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>25</v>
@@ -5437,16 +5593,16 @@
     </row>
     <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>25</v>
@@ -5499,16 +5655,16 @@
     </row>
     <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>25</v>
@@ -5544,7 +5700,7 @@
         <v>25</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q60" s="11" t="n">
         <v>43831</v>
@@ -5561,16 +5717,16 @@
     </row>
     <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>25</v>
@@ -5606,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q61" s="11" t="n">
         <v>43831</v>
@@ -5623,16 +5779,16 @@
     </row>
     <row r="62" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>25</v>
@@ -5685,16 +5841,16 @@
     </row>
     <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>25</v>
@@ -5747,16 +5903,16 @@
     </row>
     <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="20" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>25</v>
@@ -5809,16 +5965,16 @@
     </row>
     <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="20" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>25</v>
@@ -5871,16 +6027,16 @@
     </row>
     <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>25</v>
@@ -5916,7 +6072,7 @@
         <v>25</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q66" s="11" t="n">
         <v>43831</v>
@@ -5933,16 +6089,16 @@
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>25</v>
@@ -5978,7 +6134,7 @@
         <v>25</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q67" s="11" t="n">
         <v>43831</v>
@@ -5995,16 +6151,16 @@
     </row>
     <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>25</v>
@@ -6057,16 +6213,16 @@
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>25</v>
@@ -6119,16 +6275,16 @@
     </row>
     <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="20" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>25</v>
@@ -6181,16 +6337,16 @@
     </row>
     <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>25</v>
@@ -6243,16 +6399,16 @@
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="20" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>25</v>
@@ -6288,7 +6444,7 @@
         <v>25</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="11" t="n">
         <v>43831</v>
@@ -6305,16 +6461,16 @@
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>25</v>
@@ -6350,7 +6506,7 @@
         <v>25</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q73" s="11" t="n">
         <v>43831</v>
@@ -6367,16 +6523,16 @@
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>25</v>
@@ -6429,16 +6585,16 @@
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>25</v>
@@ -6491,16 +6647,16 @@
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>25</v>
@@ -6553,16 +6709,16 @@
     </row>
     <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>25</v>
@@ -6615,16 +6771,16 @@
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>25</v>
@@ -6660,7 +6816,7 @@
         <v>25</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q78" s="19" t="n">
         <v>54789</v>
@@ -6677,16 +6833,16 @@
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>25</v>
@@ -6722,7 +6878,7 @@
         <v>25</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q79" s="19" t="n">
         <v>54789</v>
@@ -6739,16 +6895,16 @@
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="20" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>25</v>
@@ -6801,16 +6957,16 @@
     </row>
     <row r="81" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="20" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>25</v>
@@ -6863,16 +7019,16 @@
     </row>
     <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="20" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>25</v>
@@ -6925,16 +7081,16 @@
     </row>
     <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>25</v>
@@ -6987,16 +7143,16 @@
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="20" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>25</v>
@@ -7032,7 +7188,7 @@
         <v>25</v>
       </c>
       <c r="P84" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q84" s="11" t="n">
         <v>43831</v>
@@ -7049,16 +7205,16 @@
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="20" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>25</v>
@@ -7094,7 +7250,7 @@
         <v>25</v>
       </c>
       <c r="P85" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q85" s="11" t="n">
         <v>43831</v>
@@ -7111,16 +7267,16 @@
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>25</v>
@@ -7173,16 +7329,16 @@
     </row>
     <row r="87" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>25</v>
@@ -7235,16 +7391,16 @@
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>25</v>
@@ -7299,16 +7455,16 @@
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>25</v>
@@ -7363,16 +7519,16 @@
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>25</v>
@@ -7408,7 +7564,7 @@
         <v>25</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q90" s="11" t="n">
         <v>43831</v>
@@ -7427,16 +7583,16 @@
     </row>
     <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>25</v>
@@ -7472,7 +7628,7 @@
         <v>25</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q91" s="11" t="n">
         <v>43831</v>
@@ -7495,13 +7651,13 @@
         <v>EV-0777</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>25</v>
@@ -7560,13 +7716,13 @@
         <v>EV-0888</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>25</v>
@@ -7625,13 +7781,13 @@
         <v>EV-0999</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>25</v>
@@ -7690,7 +7846,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -7721,7 +7877,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -7755,7 +7911,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>

--- a/tests/test_data/members_synthetic.xlsx
+++ b/tests/test_data/members_synthetic.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="347">
   <si>
     <t xml:space="preserve">Erntevertrag-Nr.</t>
   </si>
@@ -241,6 +241,63 @@
   </si>
   <si>
     <t xml:space="preserve">0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDackyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dackyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0018-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ducky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0022</t>
   </si>
   <si>
     <r>
@@ -251,7 +308,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Duck</t>
+      <t xml:space="preserve">Gans</t>
     </r>
     <r>
       <rPr>
@@ -260,26 +317,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Donna</t>
+      <t xml:space="preserve">Golo</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Donna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dicky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0108</t>
+    <t xml:space="preserve">Golo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDorette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0124</t>
   </si>
   <si>
     <r>
@@ -290,7 +350,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Duck</t>
+      <t xml:space="preserve">Gans</t>
     </r>
     <r>
       <rPr>
@@ -299,17 +359,68 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dackyy</t>
+      <t xml:space="preserve">Franz</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Dackyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0018</t>
+    <t xml:space="preserve">Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fränzchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Quack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0032, EV-0032-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Düsentrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0024</t>
   </si>
   <si>
     <r>
@@ -320,7 +431,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Duck</t>
+      <t xml:space="preserve">Düsentrieb</t>
     </r>
     <r>
       <rPr>
@@ -329,38 +440,257 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Ducky</t>
+      <t xml:space="preserve">Dieter</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ducky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0023</t>
+    <t xml:space="preserve">Dieter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnurri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Della</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneysac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panzerknacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaukeley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gundel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimmermehr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hokus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menetekel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaukeleys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorngiebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacharias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zanker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schurigel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baptist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rührig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fräulein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frieda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0134-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helferlein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
   </si>
   <si>
     <r>
@@ -371,7 +701,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Duck</t>
+      <t xml:space="preserve">Gans</t>
     </r>
     <r>
       <rPr>
@@ -380,328 +710,10 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dorette</t>
+      <t xml:space="preserve">Gitta</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Dorette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fränzchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">von Quack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0032, EV-0032-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Düsentrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnurri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Della</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneysac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panzerknacker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaukeley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gundel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nimmermehr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pokus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hokus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menetekel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaukeleys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zorngiebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacharias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zanker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schurigel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baptist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rührig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fräulein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frieda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0134-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helferlein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gitta</t>
   </si>
   <si>
@@ -760,6 +772,270 @@
   </si>
   <si>
     <t xml:space="preserve">0152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDoofy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doofy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tümmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgermeister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panchito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carioca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streunecke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Striezel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spitzkriegler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streckenwärter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erpel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-Hörnchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-Hörnchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huhn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henriette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quacky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schofel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDettmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dettmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crackshell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krachbumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0121</t>
   </si>
   <si>
     <r>
@@ -770,7 +1046,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Duck</t>
+      <t xml:space="preserve">Crackshell</t>
     </r>
     <r>
       <rPr>
@@ -779,305 +1055,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Doofy</t>
+      <t xml:space="preserve">Mama</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Doofy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tümmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pistoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panchito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carioca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streunecke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Striezel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spitzkriegler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streckenwärter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erpel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-Hörnchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-Hörnchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huhn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henriette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quacky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Duck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dolly</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schofel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shandy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0142</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Duck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dettmar</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dettmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crackshell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krachbumm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0121</t>
   </si>
   <si>
     <t xml:space="preserve">Mama</t>
@@ -1941,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="17:17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -2857,10 +2836,10 @@
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -2913,16 +2892,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -2975,16 +2954,16 @@
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -3037,16 +3016,16 @@
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
@@ -3099,16 +3078,16 @@
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>25</v>
@@ -3161,16 +3140,16 @@
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>25</v>
@@ -3223,16 +3202,16 @@
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>25</v>
@@ -3285,16 +3264,16 @@
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>25</v>
@@ -3347,16 +3326,16 @@
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>25</v>
@@ -3409,16 +3388,16 @@
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>25</v>
@@ -3471,16 +3450,16 @@
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>25</v>
@@ -3533,16 +3512,16 @@
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
@@ -3595,16 +3574,16 @@
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>25</v>
@@ -3657,16 +3636,16 @@
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>25</v>
@@ -3719,16 +3698,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>25</v>
@@ -3781,16 +3760,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
@@ -3843,16 +3822,16 @@
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
@@ -3905,16 +3884,16 @@
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>25</v>
@@ -3967,16 +3946,16 @@
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>25</v>
@@ -4029,16 +4008,16 @@
     </row>
     <row r="34" s="16" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>25</v>
@@ -4097,16 +4076,16 @@
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>25</v>
@@ -4159,16 +4138,16 @@
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>25</v>
@@ -4221,16 +4200,16 @@
     </row>
     <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>25</v>
@@ -4283,16 +4262,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>25</v>
@@ -4345,16 +4324,16 @@
     </row>
     <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>25</v>
@@ -4407,16 +4386,16 @@
     </row>
     <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>25</v>
@@ -4469,16 +4448,16 @@
     </row>
     <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>25</v>
@@ -4531,16 +4510,16 @@
     </row>
     <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>25</v>
@@ -4595,16 +4574,16 @@
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>25</v>
@@ -4659,16 +4638,16 @@
     </row>
     <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>25</v>
@@ -4723,16 +4702,16 @@
     </row>
     <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>25</v>
@@ -4787,16 +4766,16 @@
     </row>
     <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>25</v>
@@ -4849,16 +4828,16 @@
     </row>
     <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>25</v>
@@ -4911,16 +4890,16 @@
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>25</v>
@@ -4973,16 +4952,16 @@
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>25</v>
@@ -5035,16 +5014,16 @@
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>25</v>
@@ -5097,16 +5076,16 @@
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>25</v>
@@ -5159,16 +5138,16 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>25</v>
@@ -5221,16 +5200,16 @@
     </row>
     <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>25</v>
@@ -5283,16 +5262,16 @@
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>25</v>
@@ -5345,16 +5324,16 @@
     </row>
     <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>25</v>
@@ -5407,16 +5386,16 @@
     </row>
     <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>25</v>
@@ -5469,16 +5448,16 @@
     </row>
     <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>25</v>
@@ -5531,16 +5510,16 @@
     </row>
     <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>25</v>
@@ -5593,16 +5572,16 @@
     </row>
     <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>25</v>
@@ -5655,16 +5634,16 @@
     </row>
     <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>25</v>
@@ -5717,16 +5696,16 @@
     </row>
     <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>25</v>
@@ -5779,16 +5758,16 @@
     </row>
     <row r="62" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>25</v>
@@ -5841,16 +5820,16 @@
     </row>
     <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>25</v>
@@ -5903,16 +5882,16 @@
     </row>
     <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>25</v>
@@ -5965,16 +5944,16 @@
     </row>
     <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>25</v>
@@ -6027,16 +6006,16 @@
     </row>
     <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>25</v>
@@ -6089,16 +6068,16 @@
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>25</v>
@@ -6151,16 +6130,16 @@
     </row>
     <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>25</v>
@@ -6213,16 +6192,16 @@
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>25</v>
@@ -6275,16 +6254,16 @@
     </row>
     <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>25</v>
@@ -6337,16 +6316,16 @@
     </row>
     <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>25</v>
@@ -6399,16 +6378,16 @@
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>25</v>
@@ -6461,16 +6440,16 @@
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>25</v>
@@ -6523,16 +6502,16 @@
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>25</v>
@@ -6585,16 +6564,16 @@
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>25</v>
@@ -6647,16 +6626,16 @@
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>25</v>
@@ -6709,16 +6688,16 @@
     </row>
     <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>25</v>
@@ -6771,16 +6750,16 @@
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>25</v>
@@ -6833,16 +6812,16 @@
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>25</v>
@@ -6895,16 +6874,16 @@
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>25</v>
@@ -6957,16 +6936,16 @@
     </row>
     <row r="81" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="20" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>25</v>
@@ -7019,16 +6998,16 @@
     </row>
     <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>25</v>
@@ -7081,16 +7060,16 @@
     </row>
     <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>25</v>
@@ -7143,16 +7122,16 @@
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="20" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>25</v>
@@ -7205,16 +7184,16 @@
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="20" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>25</v>
@@ -7267,16 +7246,16 @@
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>25</v>
@@ -7329,16 +7308,16 @@
     </row>
     <row r="87" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>25</v>
@@ -7391,16 +7370,16 @@
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>25</v>
@@ -7455,16 +7434,16 @@
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>25</v>
@@ -7519,16 +7498,16 @@
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>25</v>
@@ -7583,16 +7562,16 @@
     </row>
     <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>25</v>
@@ -7651,13 +7630,13 @@
         <v>EV-0777</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>25</v>
@@ -7716,13 +7695,13 @@
         <v>EV-0888</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>25</v>
@@ -7781,13 +7760,13 @@
         <v>EV-0999</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>25</v>
@@ -7846,7 +7825,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -7877,7 +7856,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -7911,7 +7890,7 @@
         <v>EV-gelöscht</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
